--- a/Lab_2/data.xlsx
+++ b/Lab_2/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlerk\PycharmProjects\PatternCV_Marynchenko\Lab_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F367EE-9EFA-4C18-BFAE-1DFC19E61305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70E86E3-1816-4DB0-B88B-FF3A7EE8BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13248" yWindow="828" windowWidth="17280" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2172" yWindow="1080" windowWidth="17280" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -69,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,7 +355,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,112 +372,112 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>28</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>39</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>30</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>48</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>46</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>44</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>41</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>48</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
